--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahis\OneDrive\Escritorio\TestSpotify\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6DF41-A11F-4526-9537-8FC7AD00649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4330771-AE2A-43B9-B53F-2BD2DD753CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Artista</t>
   </si>
@@ -38,36 +44,12 @@
   <si>
     <t>Repros</t>
   </si>
-  <si>
-    <t>Camilo</t>
-  </si>
-  <si>
-    <t>Mis Manos</t>
-  </si>
-  <si>
-    <t>De Adentro Pa Afuera (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>78.842.054</t>
-  </si>
-  <si>
-    <t>130.319.605</t>
-  </si>
-  <si>
-    <t>74.866.043</t>
-  </si>
-  <si>
-    <t>El Mismo Aire (con Pablo Alborán)</t>
-  </si>
-  <si>
-    <t>BEBÉ</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,10 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +105,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,80 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.1673611111111111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>377572328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.13055555555555556</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>320433456</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
-    <sortCondition descending="1" ref="D1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>